--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/81/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/81/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7187187187187187</v>
+        <v>0.09930993099309932</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1473.473473473474</v>
+        <v>717.1817181718172</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07177177177177177</v>
+        <v>0.0862886288628863</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2942942942942943</v>
+        <v>0.2087208720872087</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666.6666666666667</v>
+        <v>1229.85298529853</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.1841841841842</v>
+        <v>366.6066606660666</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>496.4964964964965</v>
+        <v>910.1809180918091</v>
       </c>
     </row>
   </sheetData>
